--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1960982.506051498</v>
+        <v>1959094.924535097</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>571897.7962147441</v>
+        <v>189431.606648225</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>264.8049245203331</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -716,13 +716,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>330.6679898432817</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>9.764863467406547</v>
       </c>
       <c r="U4" t="n">
-        <v>83.59830597394826</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>396.1383875921096</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>193.6890216929314</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>132.997194893274</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>287.2841839626593</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>67.20546492786109</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>27.45797858609773</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>129.3131516747411</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.0969007895894</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1585,13 +1585,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>105.6571329437494</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>54.27683016996312</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>78.5979249310292</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>175.645976061491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>237.4804158064615</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>143.0053956628067</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>121.2051997333534</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>23.39375411340976</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2533,16 +2533,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>131.0976868917015</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>225.2740891419852</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965538</v>
+        <v>93.41221638965521</v>
       </c>
       <c r="E31" t="n">
-        <v>91.2307060180122</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437427</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>4.078991725596346</v>
+        <v>22.14609241444761</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523582</v>
+        <v>54.76109577523566</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550463</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373641</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3253,7 +3253,7 @@
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224545</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1620.08070321196</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C2" t="n">
-        <v>1251.118186271549</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>892.8524876647982</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>892.8524876647982</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.08070321196</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="Y2" t="n">
-        <v>1620.08070321196</v>
+        <v>1328.4755035807</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,16 +4410,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4431,19 +4431,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>138.3857151273829</v>
+        <v>718.2654857545084</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>718.2654857545084</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1703.566937845283</v>
+        <v>1310.651480925462</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.566937845283</v>
+        <v>941.6889639850508</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>941.6889639850508</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>941.6889639850508</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>934.7434632358473</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4595,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2446.474925091209</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2446.474925091209</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2446.474925091209</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>2093.706269821095</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X5" t="n">
-        <v>2093.706269821095</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="Y5" t="n">
-        <v>1703.566937845283</v>
+        <v>1697.251320989584</v>
       </c>
     </row>
     <row r="6">
@@ -4635,25 +4635,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X7" t="n">
-        <v>593.7883833041373</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y7" t="n">
-        <v>372.9958041606071</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1882.054803223514</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="C8" t="n">
-        <v>1513.092286283102</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D8" t="n">
-        <v>1154.826587676352</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E8" t="n">
-        <v>769.0383350781076</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>358.0524302885</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>344.1290262270909</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2101.83964115093</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1749.070985880816</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>1749.070985880816</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.654643287636</v>
+        <v>1358.931653905004</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4887,7 +4887,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5356891811371</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="X10" t="n">
-        <v>670.9767331549069</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="Y10" t="n">
-        <v>450.1841540113768</v>
+        <v>184.2708856551155</v>
       </c>
     </row>
     <row r="11">
@@ -5036,40 +5036,40 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1829059167193</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="M12" t="n">
-        <v>1357.551052309181</v>
+        <v>1442.796708849623</v>
       </c>
       <c r="N12" t="n">
-        <v>1702.071707946799</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O12" t="n">
-        <v>2371.535469249458</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>879.2482765610113</v>
+        <v>416.1184791449341</v>
       </c>
       <c r="C13" t="n">
-        <v>710.3120936331044</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207686</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383755</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687012</v>
+        <v>898.7925182488383</v>
       </c>
       <c r="V13" t="n">
-        <v>1009.867621687012</v>
+        <v>644.1080300429514</v>
       </c>
       <c r="W13" t="n">
-        <v>1009.867621687012</v>
+        <v>644.1080300429514</v>
       </c>
       <c r="X13" t="n">
-        <v>1009.867621687012</v>
+        <v>416.1184791449341</v>
       </c>
       <c r="Y13" t="n">
-        <v>1009.867621687012</v>
+        <v>416.1184791449341</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5273,13 +5273,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,40 +5288,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L15" t="n">
-        <v>1050.793780719526</v>
+        <v>661.6060969157199</v>
       </c>
       <c r="M15" t="n">
-        <v>1819.161927111988</v>
+        <v>1429.974243308181</v>
       </c>
       <c r="N15" t="n">
-        <v>2623.573505376138</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>973.0255547109412</v>
+        <v>203.9414681711438</v>
       </c>
       <c r="C16" t="n">
-        <v>804.0893717830343</v>
+        <v>203.9414681711438</v>
       </c>
       <c r="D16" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="W16" t="n">
-        <v>1209.499100520942</v>
+        <v>385.5899330013835</v>
       </c>
       <c r="X16" t="n">
-        <v>1154.674019541181</v>
+        <v>385.5899330013835</v>
       </c>
       <c r="Y16" t="n">
-        <v>1154.674019541181</v>
+        <v>385.5899330013835</v>
       </c>
     </row>
     <row r="17">
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,7 +5549,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
@@ -5595,25 +5595,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028584</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M18" t="n">
-        <v>334.2881267578673</v>
+        <v>772.8730769161741</v>
       </c>
       <c r="N18" t="n">
-        <v>1138.699705022018</v>
+        <v>1577.284655180325</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>804.0893717830343</v>
+        <v>345.5451177528689</v>
       </c>
       <c r="C19" t="n">
-        <v>804.0893717830343</v>
+        <v>176.608934824962</v>
       </c>
       <c r="D19" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.499100520942</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X19" t="n">
-        <v>981.5095496229242</v>
+        <v>527.1935825831087</v>
       </c>
       <c r="Y19" t="n">
-        <v>804.0893717830343</v>
+        <v>527.1935825831087</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5750,10 +5750,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5832,25 +5832,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>436.8967109626374</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L21" t="n">
-        <v>1050.793780719526</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M21" t="n">
-        <v>1819.161927111988</v>
+        <v>1499.368801821511</v>
       </c>
       <c r="N21" t="n">
-        <v>2623.573505376138</v>
+        <v>1843.889457459129</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>2092.642871543091</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,7 +5914,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>1259.037062672588</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V22" t="n">
-        <v>1004.352574466701</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W22" t="n">
-        <v>714.9354044297402</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X22" t="n">
-        <v>486.9458535317229</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>266.1532743881928</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5969,31 +5969,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6069,22 +6069,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L24" t="n">
-        <v>1122.004430061687</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M24" t="n">
-        <v>1128.069692924718</v>
+        <v>1009.263896089485</v>
       </c>
       <c r="N24" t="n">
-        <v>1128.069692924718</v>
+        <v>1353.784551727103</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>2023.248313029762</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>437.6964226305958</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>268.7602397026889</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D25" t="n">
-        <v>268.7602397026889</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E25" t="n">
-        <v>120.8471461202957</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028586</v>
@@ -6148,19 +6148,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.78763177146</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286132</v>
+        <v>609.3753482118777</v>
       </c>
       <c r="X25" t="n">
-        <v>437.6964226305958</v>
+        <v>609.3753482118777</v>
       </c>
       <c r="Y25" t="n">
-        <v>437.6964226305958</v>
+        <v>388.5827690683476</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6266,10 +6266,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6309,22 +6309,22 @@
         <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>1122.004430061687</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M27" t="n">
-        <v>1890.372576454149</v>
+        <v>1276.47550669726</v>
       </c>
       <c r="N27" t="n">
-        <v>2374.820091292176</v>
+        <v>1648.370314660465</v>
       </c>
       <c r="O27" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>545.4651278373168</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C28" t="n">
-        <v>376.5289449094099</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688068</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.497233179936</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O28" t="n">
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>960.371572043376</v>
       </c>
       <c r="V28" t="n">
-        <v>955.103143565574</v>
+        <v>705.6870838374891</v>
       </c>
       <c r="W28" t="n">
-        <v>955.103143565574</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="X28" t="n">
-        <v>727.1135926675566</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="Y28" t="n">
-        <v>727.1135926675566</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,13 +6473,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>334.288126757867</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2305.447192690473</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2488.090670303824</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.5641438163767</v>
+        <v>439.5324299542192</v>
       </c>
       <c r="C31" t="n">
-        <v>491.3888261698405</v>
+        <v>326.3571123076831</v>
       </c>
       <c r="D31" t="n">
-        <v>397.0330520388754</v>
+        <v>232.0013381767182</v>
       </c>
       <c r="E31" t="n">
-        <v>304.880823737853</v>
+        <v>232.0013381767182</v>
       </c>
       <c r="F31" t="n">
-        <v>213.7517415213133</v>
+        <v>232.0013381767182</v>
       </c>
       <c r="G31" t="n">
-        <v>101.3372851225045</v>
+        <v>119.5868817779097</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933499</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667506</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962048</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737482</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818924</v>
+        <v>902.6804289818938</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652458</v>
+        <v>730.4517433652472</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652458</v>
+        <v>565.420029503088</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6698,22 +6698,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
@@ -6725,25 +6725,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6780,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028587</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M33" t="n">
-        <v>334.288126757867</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>1949.360523305091</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6835,16 +6835,16 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6856,49 +6856,49 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045215</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
         <v>772.2886129010315</v>
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6950,37 +6950,37 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M36" t="n">
-        <v>1983.943432422806</v>
+        <v>1197.770682899239</v>
       </c>
       <c r="N36" t="n">
-        <v>2328.464088060424</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O36" t="n">
-        <v>2328.464088060424</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254953</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="38">
@@ -7160,43 +7160,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606511</v>
+        <v>836.471721275012</v>
       </c>
       <c r="N39" t="n">
-        <v>2623.573505376138</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O39" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
         <v>478.0475988506726</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>263.5382936126482</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L42" t="n">
-        <v>263.5382936126482</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M42" t="n">
-        <v>334.288126757867</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7679,19 +7679,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>531.7271806036092</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>761.6902864719584</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1082.02560600166</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,25 +7807,25 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8772,13 +8772,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>238.3955820770628</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9018,13 +9018,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,19 +9243,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>365.0697788354061</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9492,10 +9492,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9723,10 +9723,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>148.2605620664936</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9972,7 +9972,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,10 +10677,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10908,19 +10908,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>213.5985118464817</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>50.51882850719622</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.1499203090384356</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>42.95834007446298</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>171.432825219074</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>70.01754808718316</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>42.93867729060381</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>48.75693659211589</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>143.5176026737843</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>58.62678044858387</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>122.0272939095215</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>17.51778612651082</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>60.96326325659208</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801203</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.2177913943741</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>89.63158001338282</v>
+        <v>71.56447932453138</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571501</v>
+        <v>55.21598883571485</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>879815.3844098453</v>
+        <v>879815.3844098451</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>879815.3844098452</v>
+        <v>879815.3844098451</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>915349.809026858</v>
+        <v>915349.8090268581</v>
       </c>
     </row>
     <row r="12">
@@ -26317,43 +26317,43 @@
         <v>513151.1061651768</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="F2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="G2" t="n">
         <v>488786.3246721358</v>
-      </c>
-      <c r="G2" t="n">
-        <v>488786.324672136</v>
       </c>
       <c r="H2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="I2" t="n">
+        <v>488786.324672136</v>
+      </c>
+      <c r="J2" t="n">
         <v>488786.3246721359</v>
       </c>
-      <c r="J2" t="n">
-        <v>488786.3246721358</v>
-      </c>
       <c r="K2" t="n">
-        <v>508527.6716815881</v>
+        <v>508527.6716815878</v>
       </c>
       <c r="L2" t="n">
+        <v>513151.1061651767</v>
+      </c>
+      <c r="M2" t="n">
+        <v>513151.1061651768</v>
+      </c>
+      <c r="N2" t="n">
+        <v>513151.1061651768</v>
+      </c>
+      <c r="O2" t="n">
+        <v>513151.1061651766</v>
+      </c>
+      <c r="P2" t="n">
         <v>513151.1061651765</v>
-      </c>
-      <c r="M2" t="n">
-        <v>513151.1061651764</v>
-      </c>
-      <c r="N2" t="n">
-        <v>513151.1061651764</v>
-      </c>
-      <c r="O2" t="n">
-        <v>513151.1061651767</v>
-      </c>
-      <c r="P2" t="n">
-        <v>513151.1061651768</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284557</v>
+        <v>44162.60530284569</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086697</v>
+        <v>10342.90680086682</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284556</v>
+        <v>44162.60530284567</v>
       </c>
     </row>
     <row r="4">
@@ -26418,43 +26418,43 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
+        <v>787.7936905758436</v>
+      </c>
+      <c r="G4" t="n">
         <v>787.7936905758901</v>
       </c>
-      <c r="G4" t="n">
-        <v>787.793690575863</v>
-      </c>
       <c r="H4" t="n">
-        <v>787.7936905758825</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="J4" t="n">
         <v>787.7936905758824</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477237</v>
+        <v>18952.41620477243</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189635</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23206.58093189632</v>
+      </c>
+      <c r="N4" t="n">
         <v>23206.58093189636</v>
       </c>
-      <c r="M4" t="n">
-        <v>23206.58093189637</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189634</v>
-      </c>
       <c r="O4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189632</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189634</v>
@@ -26473,22 +26473,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26500,16 +26500,16 @@
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-298734.9902933963</v>
+        <v>-298734.9902933962</v>
       </c>
       <c r="C6" t="n">
         <v>291232.8889211484</v>
       </c>
       <c r="D6" t="n">
-        <v>291232.8889211486</v>
+        <v>291232.8889211487</v>
       </c>
       <c r="E6" t="n">
-        <v>-129148.8314440527</v>
+        <v>-129246.2905700248</v>
       </c>
       <c r="F6" t="n">
-        <v>396011.2050328433</v>
+        <v>395913.7459068713</v>
       </c>
       <c r="G6" t="n">
-        <v>396011.2050328436</v>
+        <v>395913.7459068711</v>
       </c>
       <c r="H6" t="n">
-        <v>396011.2050328434</v>
+        <v>395913.7459068712</v>
       </c>
       <c r="I6" t="n">
-        <v>396011.2050328434</v>
+        <v>395913.7459068713</v>
       </c>
       <c r="J6" t="n">
-        <v>219587.9858402503</v>
+        <v>219490.5267142783</v>
       </c>
       <c r="K6" t="n">
-        <v>348784.4416437474</v>
+        <v>348765.9479058125</v>
       </c>
       <c r="L6" t="n">
-        <v>381886.5126123878</v>
+        <v>381886.5126123881</v>
       </c>
       <c r="M6" t="n">
-        <v>257428.4041794176</v>
+        <v>257428.4041794178</v>
       </c>
       <c r="N6" t="n">
-        <v>392229.4194132547</v>
+        <v>392229.4194132551</v>
       </c>
       <c r="O6" t="n">
-        <v>392229.4194132549</v>
+        <v>392229.4194132548</v>
       </c>
       <c r="P6" t="n">
-        <v>348066.8141104096</v>
+        <v>348066.8141104091</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964068</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108372</v>
+        <v>12.92863350108352</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855695</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>142.0711212213783</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>18.57297887413131</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.202682480856311e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.481659405224491e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>215.2702419906777</v>
       </c>
       <c r="U4" t="n">
-        <v>202.6835682680295</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>17.64578242868538</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>22.75929866472643</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>85.19271039829675</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,19 +27828,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>92.71246049576317</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>36.63858880169789</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>260.5467935422738</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>19.59084822180881</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,19 +28065,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>198.2516768029394</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,10 +28324,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28798,22 +28798,22 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855714</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855714</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29998,13 +29998,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>87.78329382423925</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31142,25 +31142,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>149.8971812516338</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31373,7 +31373,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>162.4518126576415</v>
+        <v>86.4344768999344</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,25 +31592,25 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>56.98116194942361</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993485</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,37 +31838,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>138.0254025558049</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,16 +32005,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,37 +32075,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>147.8809216101174</v>
+        <v>211.1801409386339</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32324,10 +32324,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>341.0678223458549</v>
@@ -32336,13 +32336,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32552,34 +32552,34 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>216.4869287318324</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>346.0219808250476</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32789,13 +32789,13 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>238.778605225566</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -32807,16 +32807,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946997</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33029,31 +33029,31 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>141.3402618185954</v>
+        <v>27.65065891473438</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33260,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>56.01844895119675</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,25 +33409,25 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041499</v>
       </c>
       <c r="L32" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33503,31 +33503,31 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>164.4358785485903</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,16 +33664,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540898</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,37 +33734,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>379.0732128071263</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>150.6569265784261</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,25 +33901,25 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540898</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,37 +33971,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>224.6051223555648</v>
+        <v>371.5026901321057</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,25 +34120,25 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041499</v>
       </c>
       <c r="L41" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,16 +34147,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -34217,13 +34217,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>435.7437450400228</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>341.0678223458549</v>
@@ -34232,13 +34232,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,19 +34445,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>144.2740676092158</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34466,16 +34466,16 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856231</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>370.3113680793899</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>107.0538699937295</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,19 +35647,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109123</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>380.1668871337024</v>
+        <v>443.4661064622189</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>239.4656922197792</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>222.4735343909616</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
@@ -35984,7 +35984,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>343.1107267700521</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>669.5930106530292</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>6.126528144475264</v>
+        <v>562.3496350535476</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36610,13 +36610,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q26" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>489.3409240788156</v>
+        <v>375.6513211749546</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>126.1139626010243</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412249</v>
+        <v>67.71102679412266</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075295</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043172</v>
+        <v>94.42895660043189</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>415.7019533808754</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,19 +37306,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>702.6442426351078</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>498.6575888386463</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,19 +37543,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P38" t="n">
         <v>570.6060255109123</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>572.6057846157851</v>
+        <v>719.503352392326</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>71.4644779244634</v>
+        <v>759.3147748680044</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -37880,7 +37880,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>270.8978656474354</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
